--- a/examples/output/set_background1.xlsx
+++ b/examples/output/set_background1.xlsx
@@ -337,7 +337,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15">
+    <row r="1">
       <c r="A1" t="str">
         <v>Sheet1</v>
       </c>
